--- a/assessments/immunity-migration/CLH-ZT2024.xlsx
+++ b/assessments/immunity-migration/CLH-ZT2024.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/expercy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/expercy/Documents/GitHub/Laberit-intelligence/assessments/immunity-migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F7946C-C6EA-3C46-9EAB-B0A17EC49543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D72BF9-BF75-CF44-8305-76DBFE425EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="2000" windowWidth="16700" windowHeight="16920" xr2:uid="{EF268A7F-23E2-6045-AFE4-177CBBC393AC}"/>
+    <workbookView xWindow="14500" yWindow="1840" windowWidth="22120" windowHeight="17420" xr2:uid="{EF268A7F-23E2-6045-AFE4-177CBBC393AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Protection_Scores" sheetId="3" r:id="rId1"/>
     <sheet name="ZeroTrust_Maturity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,9 +45,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Eval</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
     <t>Apps with legacy authentication</t>
   </si>
   <si>
-    <t>Threat_Protection</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -613,6 +607,12 @@
   </si>
   <si>
     <t>AVL01</t>
+  </si>
+  <si>
+    <t>Protection_Performance</t>
+  </si>
+  <si>
+    <t>ZeroTrust_Readiness</t>
   </si>
 </sst>
 </file>
@@ -677,12 +677,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,16 +689,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -717,7 +707,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,10 +736,10 @@
   <autoFilter ref="A1:E36" xr:uid="{82A6A676-69C6-4BA2-960D-A4579DA0FBEB}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{93FB0772-B4EF-5F40-8626-D085AF99C56E}" name="ID_VECTOR" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{73ABCE8F-9587-DF4A-AA3D-A66CA637C221}" name="Attack_Vector" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{73ABCE8F-9587-DF4A-AA3D-A66CA637C221}" name="Attack_Vector" dataDxfId="6" dataCellStyle="Normal 2"/>
     <tableColumn id="1" xr3:uid="{923BD967-8BB4-0C44-9F19-AF4580EA04AD}" name="Attack_Surface_Metrics"/>
     <tableColumn id="2" xr3:uid="{C3833FDD-2ECB-C14C-8984-CC5CC84AAED6}" name="Value"/>
-    <tableColumn id="4" xr3:uid="{C7F3B92C-7AF3-9D42-ACB2-535C1460A74F}" name="Threat_Protection"/>
+    <tableColumn id="4" xr3:uid="{C7F3B92C-7AF3-9D42-ACB2-535C1460A74F}" name="Protection_Performance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,12 +751,12 @@
   <tableColumns count="8">
     <tableColumn id="6" xr3:uid="{04E8C3B3-2B59-8E4C-8662-4422F2BE7E25}" name="ID_Control" dataCellStyle="Normal 2"/>
     <tableColumn id="1" xr3:uid="{6392BFBD-5B4C-124A-A86D-AC702795DF14}" name="SCID"/>
-    <tableColumn id="2" xr3:uid="{D60BE136-13A2-7747-9100-3D295DD78E59}" name="Description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6DE3C00F-B343-BB42-ABD3-55B2D2B1C9F0}" name="Eval" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3BF4605B-CE17-EC48-9540-AA932F9572F1}" name="Customer_Technology" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FBB3E404-5830-8541-81A0-D549CB972E30}" name="Assessment_Notes" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{036D7B4A-B87A-A947-BB33-E923BCEECB91}" name="ZT_Pillar" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D2F70457-01BF-DD4F-8E9B-63B93C782A1E}" name="Version" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D60BE136-13A2-7747-9100-3D295DD78E59}" name="Description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6DE3C00F-B343-BB42-ABD3-55B2D2B1C9F0}" name="ZeroTrust_Readiness" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3BF4605B-CE17-EC48-9540-AA932F9572F1}" name="Customer_Technology" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FBB3E404-5830-8541-81A0-D549CB972E30}" name="Assessment_Notes" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{036D7B4A-B87A-A947-BB33-E923BCEECB91}" name="ZT_Pillar" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D2F70457-01BF-DD4F-8E9B-63B93C782A1E}" name="Version" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,7 +1082,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1092,50 +1091,50 @@
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>190</v>
+      <c r="A2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>190</v>
+      <c r="A3" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="3">
         <v>55</v>
@@ -1145,42 +1144,42 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>190</v>
+      <c r="A4" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D6" s="1">
         <v>22</v>
@@ -1190,42 +1189,42 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>190</v>
+      <c r="A7" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1">
         <v>21</v>
@@ -1236,84 +1235,84 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>186</v>
+      <c r="A14" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>186</v>
+      <c r="A15" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
@@ -1323,71 +1322,71 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>186</v>
+      <c r="A16" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>186</v>
+      <c r="A18" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>187</v>
+      <c r="A19" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>187</v>
+      <c r="A20" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1">
         <v>100</v>
@@ -1397,43 +1396,43 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>187</v>
+      <c r="A21" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>187</v>
+      <c r="A22" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>187</v>
+      <c r="A23" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1">
         <v>9</v>
@@ -1443,28 +1442,28 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>188</v>
+      <c r="A24" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>188</v>
+      <c r="A25" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1">
         <v>32</v>
@@ -1474,99 +1473,99 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>188</v>
+      <c r="A26" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>188</v>
+      <c r="A27" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>188</v>
+      <c r="A28" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>188</v>
+      <c r="A29" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>189</v>
+      <c r="A30" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>189</v>
+      <c r="A31" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>189</v>
+      <c r="A32" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
@@ -1576,60 +1575,60 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>189</v>
+      <c r="A33" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>189</v>
+      <c r="A34" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1649,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1657,7 @@
     <col min="1" max="1" width="11.5" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="73" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
     <col min="6" max="6" width="155.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5" style="1"/>
@@ -1666,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1675,19 +1674,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1695,25 +1694,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1721,25 +1720,25 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,25 +1746,25 @@
         <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1773,25 +1772,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1799,25 +1798,25 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1825,25 +1824,25 @@
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1851,22 +1850,22 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1874,19 +1873,19 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1894,25 +1893,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1920,22 +1919,22 @@
         <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1943,22 +1942,22 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1966,25 +1965,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1992,25 +1991,25 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2018,25 +2017,25 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2044,25 +2043,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2070,22 +2069,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2093,25 +2092,25 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2119,25 +2118,25 @@
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2145,22 +2144,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2168,19 +2167,19 @@
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2188,22 +2187,22 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2211,25 +2210,25 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2237,25 +2236,25 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2263,25 +2262,25 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2289,25 +2288,25 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2315,22 +2314,22 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2338,25 +2337,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2364,25 +2363,25 @@
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2390,25 +2389,25 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2416,22 +2415,22 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2439,22 +2438,22 @@
         <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2462,25 +2461,25 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2488,25 +2487,25 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2514,22 +2513,22 @@
         <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2537,25 +2536,25 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2563,22 +2562,22 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
